--- a/school mockup data/KMUTNB - new/form_car_4.xlsx
+++ b/school mockup data/KMUTNB - new/form_car_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\school mockup data\KMUTNB - new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE4B2FB-8952-4222-B4D5-1418F0BAA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ABE2D3-936B-4244-BD60-28C7170EB35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="8400" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="8610" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,13 +102,13 @@
     <t>33104</t>
   </si>
   <si>
-    <t>ปั๊มเอสโซ่ บจก.อินเจคชั่น มอเตอร์ ออยล์ 51 หมู่ที่ 7 ถนน รัตนาธิเบศร์ ตำบล เสาธงหิน อำเภอบางใหญ่ นนทบุรี 11140</t>
-  </si>
-  <si>
-    <t>เฝอรถไฟ by AT Cafe ชาบูสไตล์เวียดนาม 79 33 Bang Rak Noi, เมือง Nonthaburi 11000</t>
-  </si>
-  <si>
-    <t>Factopia 231 ถนน รัตนาธิเบศร์ Bang Krasor, อำเภอเมืองนนทบุรี นนทบุรี 11000</t>
+    <t>ห้างหุ้นส่วนจำกัด ปั้นกาญจนโต เซอร์วิส 108/249 หมู่ที่ 4, ถนนรัตนาธิเบศร์, ตำบลบางรักพัฒนา อำเภอบางบัวทอง จังหวัดนนทบุรี, 11110</t>
+  </si>
+  <si>
+    <t>Patkawin Creation 24/13, Bang Bua Thong District, Nonthaburi 11110</t>
+  </si>
+  <si>
+    <t>กศนบางไผ่ 117 48 ตำบล บางกระสอ Tambon Bang Kraso, Mueang Nonthaburi District, Nonthaburi 11000</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
